--- a/Planilhas/População RACA NACIONAL.xlsx
+++ b/Planilhas/População RACA NACIONAL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,8 +486,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>92248</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92248</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -519,8 +521,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>91208</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91208</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -552,8 +556,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>90763</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>90763</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -585,8 +591,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>90074</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>90074</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -618,8 +626,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>89691</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>89691</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -651,8 +661,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>90270</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>90270</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -684,8 +696,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>91467</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>91467</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,8 +731,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>91059</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>91059</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -750,8 +766,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>91336</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>91336</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -783,8 +801,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>91240</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>91240</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -816,8 +836,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>90450</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>90450</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -849,8 +871,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>90546</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>90546</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -882,8 +906,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>90187</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>90187</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -915,8 +941,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>91158</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>91158</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -948,8 +976,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>91347</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>91347</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -981,8 +1011,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>91283</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>91283</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1014,8 +1046,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>90401</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>90401</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1047,8 +1081,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>91150</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>91150</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1080,8 +1116,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>90555</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>90555</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1113,8 +1151,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>89196</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>89196</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1146,8 +1186,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>89167</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>89167</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1179,8 +1221,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>89378</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>89378</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1212,8 +1256,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>89884</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>89884</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1245,8 +1291,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>88963</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>88963</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1278,8 +1326,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>88658</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>88658</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1311,8 +1361,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>88868</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>88868</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1344,8 +1396,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>89250</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>89250</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1377,8 +1431,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>88589</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>88589</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1410,8 +1466,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>88557</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>88557</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1443,8 +1501,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>88837</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>88837</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1476,8 +1536,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>89031</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>89031</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1509,8 +1571,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>87849</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>87849</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1542,8 +1606,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>88817</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>88817</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1575,8 +1641,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>90512</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>90512</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1608,8 +1676,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>91320</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>91320</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1641,8 +1711,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>92184</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>92184</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1674,8 +1746,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>92289</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>92289</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1707,8 +1781,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>92240</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>92240</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1740,8 +1816,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>92029</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>92029</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1773,8 +1851,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>91770</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>91770</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1806,8 +1886,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>91811</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>91811</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1839,8 +1921,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>92228</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>92228</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1872,8 +1956,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>92475</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>92475</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1905,8 +1991,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>92033</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>92033</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1938,8 +2026,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>91706</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>91706</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1971,8 +2061,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>92152</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>92152</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2004,8 +2096,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>92202</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>92202</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2037,8 +2131,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>91784</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>91784</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2070,8 +2166,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>14921</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14921</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2103,8 +2201,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>13845</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>13845</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2136,8 +2236,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>13812</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>13812</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2169,8 +2271,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>13790</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13790</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2202,8 +2306,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>13583</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13583</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2235,8 +2341,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>13332</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13332</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2268,8 +2376,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>13931</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13931</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2301,8 +2411,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>14016</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>14016</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2334,8 +2446,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>14042</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>14042</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2367,8 +2481,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>14032</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>14032</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2400,8 +2516,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>14266</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14266</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2433,8 +2551,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>14254</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>14254</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2466,8 +2586,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>14229</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>14229</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2499,8 +2621,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>14236</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>14236</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2532,8 +2656,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>14729</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>14729</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2565,8 +2691,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>15856</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>15856</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2598,8 +2726,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>15748</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>15748</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2631,8 +2761,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>15834</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>15834</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2664,8 +2796,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>15961</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>15961</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2697,8 +2831,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>16770</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>16770</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2730,8 +2866,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>17123</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>17123</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2763,8 +2901,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>16796</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>16796</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2796,8 +2936,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>16954</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>16954</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2829,8 +2971,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>18043</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>18043</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2862,8 +3006,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>18003</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>18003</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2895,8 +3041,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>18236</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>18236</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2928,8 +3076,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>18318</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>18318</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2961,8 +3111,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>19258</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>19258</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2994,8 +3146,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>19365</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>19365</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3027,8 +3181,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>19346</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>19346</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3060,8 +3216,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>18991</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>18991</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3093,8 +3251,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>19965</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>19965</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3126,8 +3286,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>19514</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>19514</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3159,8 +3321,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>18458</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>18458</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3192,8 +3356,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>18534</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>18534</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3225,8 +3391,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>18668</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>18668</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3258,8 +3426,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>18628</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>18628</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3291,8 +3461,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>18898</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>18898</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3324,8 +3496,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>20030</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>20030</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3357,8 +3531,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>20857</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>20857</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3390,8 +3566,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>21431</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>21431</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3423,8 +3601,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>21723</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>21723</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3456,8 +3636,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>22058</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>22058</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3489,8 +3671,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>22347</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>22347</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3522,8 +3706,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>22577</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>22577</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3555,8 +3741,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>22283</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>22283</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3588,8 +3776,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>22219</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>22219</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3621,8 +3811,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>22618</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>22618</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3654,8 +3846,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>88400</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>88400</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3687,8 +3881,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>91212</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>91212</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3720,8 +3916,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>91990</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>91990</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3753,8 +3951,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>93343</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>93343</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3786,8 +3986,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>94388</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>94388</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3819,8 +4021,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>94461</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>94461</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3852,8 +4056,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>92960</v>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>92960</t>
+        </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3885,8 +4091,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>93831</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>93831</t>
+        </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3918,8 +4126,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v>93873</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>93873</t>
+        </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3951,8 +4161,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D107" t="n">
-        <v>94535</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>94535</t>
+        </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3984,8 +4196,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D108" t="n">
-        <v>95172</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>95172</t>
+        </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4017,8 +4231,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v>95478</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>95478</t>
+        </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4050,8 +4266,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>96293</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>96293</t>
+        </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4083,8 +4301,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>95748</v>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>95748</t>
+        </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4116,8 +4336,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D112" t="n">
-        <v>95424</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>95424</t>
+        </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4149,8 +4371,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v>94800</v>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>94800</t>
+        </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4182,8 +4406,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D114" t="n">
-        <v>96274</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>96274</t>
+        </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4215,8 +4441,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D115" t="n">
-        <v>95725</v>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>95725</t>
+        </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4248,8 +4476,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D116" t="n">
-        <v>96491</v>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>96491</t>
+        </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4281,8 +4511,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>97494</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>97494</t>
+        </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4314,8 +4546,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v>97595</v>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>97595</t>
+        </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4347,8 +4581,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D119" t="n">
-        <v>98204</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>98204</t>
+        </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4380,8 +4616,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v>97821</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>97821</t>
+        </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4413,8 +4651,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>98071</v>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>98071</t>
+        </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4446,8 +4686,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v>98915</v>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>98915</t>
+        </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4479,8 +4721,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>98346</v>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>98346</t>
+        </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4512,8 +4756,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>98317</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>98317</t>
+        </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4545,8 +4791,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D125" t="n">
-        <v>98458</v>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>98458</t>
+        </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4578,8 +4826,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D126" t="n">
-        <v>98908</v>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>98908</t>
+        </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4611,8 +4861,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D127" t="n">
-        <v>98953</v>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>98953</t>
+        </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4644,8 +4896,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D128" t="n">
-        <v>99650</v>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>99650</t>
+        </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4677,8 +4931,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D129" t="n">
-        <v>100154</v>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>100154</t>
+        </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4710,8 +4966,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D130" t="n">
-        <v>100124</v>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>100124</t>
+        </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4743,8 +5001,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D131" t="n">
-        <v>99973</v>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>99973</t>
+        </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4776,8 +5036,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D132" t="n">
-        <v>99394</v>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>99394</t>
+        </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4809,8 +5071,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D133" t="n">
-        <v>98609</v>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>98609</t>
+        </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4842,8 +5106,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D134" t="n">
-        <v>98947</v>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>98947</t>
+        </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4875,8 +5141,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D135" t="n">
-        <v>99003</v>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>99003</t>
+        </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4908,8 +5176,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D136" t="n">
-        <v>98425</v>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>98425</t>
+        </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4941,8 +5211,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D137" t="n">
-        <v>98062</v>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>98062</t>
+        </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4974,8 +5246,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D138" t="n">
-        <v>97931</v>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>97931</t>
+        </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5007,8 +5281,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D139" t="n">
-        <v>97619</v>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>97619</t>
+        </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5040,8 +5316,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>97301</v>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>97301</t>
+        </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5073,8 +5351,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>97833</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>97833</t>
+        </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5106,8 +5386,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D142" t="n">
-        <v>98319</v>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>98319</t>
+        </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5139,8 +5421,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>98472</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>98472</t>
+        </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5172,8 +5456,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D144" t="n">
-        <v>98849</v>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>98849</t>
+        </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5205,8 +5491,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="D145" t="n">
-        <v>99289</v>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>99289</t>
+        </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
